--- a/Planilha - Resultados dos Testes/Resultados dos testes efetuados nos algoritmos.xlsx
+++ b/Planilha - Resultados dos Testes/Resultados dos testes efetuados nos algoritmos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2dba74c789b39cd/FACULDADE/4º SEMESTRE/ESTRUTURA DE DADOS/APS/Algoritmos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{2723A66B-8415-4A3E-96A1-876CD8D3A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C980512-B6B9-414D-8CFE-468C7ED1F476}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{2723A66B-8415-4A3E-96A1-876CD8D3A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DE946C-F5AF-4E67-991B-856DE3C866E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{7D8DBA05-BC44-4037-95C1-27061BBAA81E}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="TEMPO DE EXECUÇÃO" sheetId="1" r:id="rId1"/>
     <sheet name="NÚMERO DE TROCAS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NÚMERO DE TROCAS'!$A$2:$G$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Bubble Sort (Com Duplicidade)</t>
   </si>
@@ -189,14 +192,26 @@
       <t xml:space="preserve"> significa que não foi possível fazer o teste.</t>
     </r>
   </si>
+  <si>
+    <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>Valores Mais Baixo</t>
+  </si>
+  <si>
+    <t>Valores Mais Alto</t>
+  </si>
+  <si>
+    <t>Valores Médios</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -254,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +336,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF52328"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -349,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,25 +452,39 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,15 +495,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF52328"/>
+      <color rgb="FF1CCA56"/>
+      <color rgb="FFEF0B10"/>
+      <color rgb="FFF52F34"/>
+      <color rgb="FF86EEA9"/>
+      <color rgb="FFE84E4E"/>
       <color rgb="FFCBDCEB"/>
       <color rgb="FFFFFF8B"/>
       <color rgb="FFCBC9F7"/>
-      <color rgb="FF86EEA9"/>
-      <color rgb="FF1CCA56"/>
       <color rgb="FF8B86EE"/>
-      <color rgb="FFE88E4A"/>
-      <color rgb="FFA4B3C4"/>
-      <color rgb="FF69839F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -771,12 +819,12 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G28" sqref="G28"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="37.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="36" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="35.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -791,19 +839,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="31"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -826,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -908,6 +956,10 @@
       <c r="G5" s="13">
         <v>0.251</v>
       </c>
+      <c r="I5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="37"/>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -928,6 +980,8 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,8 +1013,10 @@
         <v>7.9750000000000001E-2</v>
       </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="30"/>
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -991,6 +1047,10 @@
       <c r="G8" s="13">
         <v>2E-3</v>
       </c>
+      <c r="I8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="32"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1015,6 +1075,10 @@
       <c r="G9" s="13">
         <v>4.5999999999999999E-2</v>
       </c>
+      <c r="I9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="33"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1045,7 +1109,7 @@
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>27.247</v>
       </c>
       <c r="C11" s="13">
@@ -1176,7 +1240,7 @@
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>34.773000000000003</v>
       </c>
       <c r="C16" s="13">
@@ -1506,28 +1570,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" cm="1">
-        <f t="array" ref="B28">SUM((B3:B6)+(B8:B11)+(B13:B16)+(B18:B21)+(B23:B26))/5</f>
-        <v>25.545400000000001</v>
+        <f t="array" ref="B28">SUM((B3:B6)+(B8:B11)+(B13:B16)+(B18:B21)+(B23:B26))/20</f>
+        <v>6.3863500000000002</v>
       </c>
       <c r="C28" s="8" cm="1">
-        <f t="array" ref="C28">SUM((C3:C6)+(C8:C11)+(C13:C16)+(C18:C21)+(C23:C26))/5</f>
-        <v>25.687200000000001</v>
+        <f t="array" ref="C28">SUM((C3:C6)+(C8:C11)+(C13:C16)+(C18:C21)+(C23:C26))/20</f>
+        <v>6.4218000000000002</v>
       </c>
       <c r="D28" s="8" cm="1">
-        <f t="array" ref="D28">SUM((D3:D6)+(D8:D11)+(D13:D16)+(D18:D21)+(D23:D26))/5</f>
-        <v>1.3600000000000001E-2</v>
+        <f t="array" ref="D28">SUM((D3:D6)+(D8:D11)+(D13:D16)+(D18:D21)+(D23:D26))/20</f>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="E28" s="8" cm="1">
-        <f t="array" ref="E28">SUM((E3:E6)+(E8:E11)+(E13:E16)+(E18:E21)+(E23:E26))/5</f>
-        <v>1.3600000000000001E-2</v>
+        <f t="array" ref="E28">SUM((E3:E6)+(E8:E11)+(E13:E16)+(E18:E21)+(E23:E26))/20</f>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="F28" s="8" cm="1">
-        <f t="array" ref="F28">SUM((F3:F6)+(F8:F11)+(F13:F16)+(F18:F21)+(F23:F26))/5</f>
-        <v>0.59079999999999999</v>
+        <f t="array" ref="F28">SUM((F3:F6)+(F8:F11)+(F13:F16)+(F18:F21)+(F23:F26))/20</f>
+        <v>0.1477</v>
       </c>
       <c r="G28" s="8" cm="1">
-        <f t="array" ref="G28">SUM((G3:G6)+(G8:G11)+(G13:G16)+(G18:G21)+(G23:G26))/5</f>
-        <v>0.5806</v>
+        <f t="array" ref="G28">SUM((G3:G6)+(G8:G11)+(G13:G16)+(G18:G21)+(G23:G26))/20</f>
+        <v>0.14515</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -1586,11 +1650,24 @@
       <c r="G33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I5:J6"/>
   </mergeCells>
+  <conditionalFormatting sqref="B28:G28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF1CCA56"/>
+        <color theme="5"/>
+        <color rgb="FFF52328"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1600,14 +1677,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C7B82B-E805-4076-B0F1-E3FCD42AAE7D}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="36" customWidth="1"/>
     <col min="6" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
@@ -1615,19 +1692,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="31"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1649,10 +1726,10 @@
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1722,6 +1799,10 @@
       <c r="G5" s="24">
         <v>50004999</v>
       </c>
+      <c r="I5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -1741,35 +1822,41 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <f>SUM(B3:B6)/4</f>
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <f t="shared" ref="C7:G7" si="0">SUM(C3:C6)/4</f>
         <v>0</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
         <v>15751999.25</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <f t="shared" si="0"/>
         <v>15751999.25</v>
       </c>
+      <c r="I7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1793,6 +1880,10 @@
       <c r="G8" s="24">
         <v>250499</v>
       </c>
+      <c r="I8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1816,6 +1907,10 @@
       <c r="G9" s="24">
         <v>6252499</v>
       </c>
+      <c r="I9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1863,27 +1958,27 @@
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <f>SUM(B8:B11)/4</f>
         <v>191990287.25</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <f t="shared" ref="C12:G12" si="1">SUM(C8:C11)/4</f>
         <v>191993676</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f t="shared" si="1"/>
         <v>191990287.25</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <f t="shared" si="1"/>
         <v>191993676</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <f t="shared" si="1"/>
         <v>7792948.25</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <f t="shared" si="1"/>
         <v>7876999.25</v>
       </c>
@@ -1984,27 +2079,27 @@
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <f>SUM(B13:B16)/4</f>
         <v>457612895</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <f t="shared" ref="C17:G17" si="2">SUM(C13:C16)/4</f>
         <v>458829579.75</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <f t="shared" si="2"/>
         <v>457612895</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <f t="shared" si="2"/>
         <v>458829579.75</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <f t="shared" si="2"/>
         <v>291620.25</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <f t="shared" si="2"/>
         <v>295241</v>
       </c>
@@ -2101,27 +2196,27 @@
       <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <f>SUM(B18:B21)/4</f>
         <v>456639446.5</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <f t="shared" ref="C22:G22" si="3">SUM(C18:C21)/4</f>
         <v>456637824.5</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <f t="shared" si="3"/>
         <v>456639446.5</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <f t="shared" si="3"/>
         <v>456637824.5</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <f t="shared" si="3"/>
         <v>7879063</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <f t="shared" si="3"/>
         <v>7879000</v>
       </c>
@@ -2222,27 +2317,27 @@
       <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <f>SUM(B23,B24,B25,B26)/4</f>
         <v>456607981.5</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <f t="shared" ref="C27:G27" si="4">SUM(C23:C26)/4</f>
         <v>456606323.5</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <f t="shared" si="4"/>
         <v>456607981.5</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <f t="shared" si="4"/>
         <v>456606323.5</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <f t="shared" si="4"/>
         <v>111713258</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <f t="shared" si="4"/>
         <v>108241453.5</v>
       </c>
@@ -2251,37 +2346,52 @@
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27" cm="1">
-        <f t="array" ref="B28">SUM((B3:B6)+(B8:B11)+(B13:B16)+(B18:B21)+(B23:B26))/5</f>
-        <v>1250280488.2</v>
-      </c>
-      <c r="C28" s="27" cm="1">
-        <f t="array" ref="C28">SUM((C3:C6)+(C8:C11)+(C13:C16)+(C18:C21)+(C23:C26))/5</f>
-        <v>1251253923</v>
-      </c>
-      <c r="D28" s="27" cm="1">
-        <f t="array" ref="D28">SUM((D3:D6)+(D8:D11)+(D13:D16)+(D18:D21)+(D23:D26))/5</f>
-        <v>1250280488.2002001</v>
-      </c>
-      <c r="E28" s="27" cm="1">
-        <f t="array" ref="E28">SUM((E3:E6)+(E8:E11)+(E13:E16)+(E18:E21)+(E23:E26))/5</f>
-        <v>1251253923</v>
-      </c>
-      <c r="F28" s="27" cm="1">
-        <f t="array" ref="F28">SUM((F3:F6)+(F8:F11)+(F13:F16)+(F18:F21)+(F23:F26))/5</f>
-        <v>114743111</v>
-      </c>
-      <c r="G28" s="27" cm="1">
-        <f t="array" ref="G28">SUM((G3:G6)+(G8:G11)+(G13:G16)+(G18:G21)+(G23:G26))/5</f>
-        <v>112035754.40000001</v>
+      <c r="B28" s="26" cm="1">
+        <f t="array" ref="B28">SUM((B3:B6)+(B8:B11)+(B13:B16)+(B18:B21)+(B23:B26))/20</f>
+        <v>312570122.05000001</v>
+      </c>
+      <c r="C28" s="26" cm="1">
+        <f t="array" ref="C28">SUM((C3:C6)+(C8:C11)+(C13:C16)+(C18:C21)+(C23:C26))/20</f>
+        <v>312813480.75</v>
+      </c>
+      <c r="D28" s="26" cm="1">
+        <f t="array" ref="D28">SUM((D3:D6)+(D8:D11)+(D13:D16)+(D18:D21)+(D23:D26))/20</f>
+        <v>312570122.05005002</v>
+      </c>
+      <c r="E28" s="26" cm="1">
+        <f t="array" ref="E28">SUM((E3:E6)+(E8:E11)+(E13:E16)+(E18:E21)+(E23:E26))/20</f>
+        <v>312813480.75</v>
+      </c>
+      <c r="F28" s="26" cm="1">
+        <f t="array" ref="F28">SUM((F3:F6)+(F8:F11)+(F13:F16)+(F18:F21)+(F23:F26))/20</f>
+        <v>28685777.75</v>
+      </c>
+      <c r="G28" s="26" cm="1">
+        <f t="array" ref="G28">SUM((G3:G6)+(G8:G11)+(G13:G16)+(G18:G21)+(G23:G26))/20</f>
+        <v>28008938.600000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="A2:G28" xr:uid="{C6C7B82B-E805-4076-B0F1-E3FCD42AAE7D}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I5:J6"/>
   </mergeCells>
+  <conditionalFormatting sqref="B28:G28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF1CCA56"/>
+        <color theme="5"/>
+        <color rgb="FFF52328"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>